--- a/documentation/JrTransportRequirementTraceabilityMatrix.xlsx
+++ b/documentation/JrTransportRequirementTraceabilityMatrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15204" windowHeight="6816" tabRatio="885" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15204" windowHeight="6816" tabRatio="885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="1" r:id="rId1"/>
@@ -3586,30 +3586,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3632,6 +3608,30 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3952,13 +3952,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -3978,11 +3978,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="6" t="s">
         <v>67</v>
       </c>
@@ -3991,9 +3991,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="6" t="s">
         <v>69</v>
       </c>
@@ -4002,13 +4002,13 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
@@ -4066,13 +4066,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="51" customHeight="1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
@@ -4172,7 +4172,7 @@
       <c r="E29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
       <c r="D30" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="12"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:6" ht="42.6">
       <c r="C31" s="3" t="s">
@@ -4192,10 +4192,10 @@
       <c r="E31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="12"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:6" ht="37.5" customHeight="1">
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -4203,31 +4203,31 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="C33" s="18"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="C34" s="18"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="C35" s="18"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="C36" s="18"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="C37" s="18"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="1" t="s">
         <v>28</v>
       </c>
@@ -4256,7 +4256,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="23" t="s">
         <v>45</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -4264,13 +4264,13 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="C43" s="19"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="C44" s="19"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="1" t="s">
         <v>44</v>
       </c>
@@ -4294,13 +4294,13 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
@@ -4349,7 +4349,7 @@
       <c r="D57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="22" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4357,13 +4357,13 @@
       <c r="D58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="18"/>
+      <c r="E58" s="22"/>
     </row>
     <row r="59" spans="1:5">
       <c r="D59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E59" s="18"/>
+      <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
@@ -4401,13 +4401,13 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="61.5" customHeight="1">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
@@ -4461,13 +4461,13 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
@@ -4483,7 +4483,7 @@
       <c r="A80" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F80" s="12"/>
+      <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="52.8">
       <c r="A81" s="1" t="s">
@@ -4492,7 +4492,7 @@
       <c r="D81" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F81" s="12"/>
+      <c r="F81" s="21"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
@@ -4510,13 +4510,13 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="48.75" customHeight="1">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
@@ -4558,7 +4558,7 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -4566,13 +4566,13 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="C93" s="14"/>
+      <c r="C93" s="28"/>
       <c r="D93" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="C94" s="14"/>
+      <c r="C94" s="28"/>
       <c r="D94" s="1" t="s">
         <v>44</v>
       </c>
@@ -4588,13 +4588,13 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
@@ -4688,21 +4688,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A67:E67"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="E57:E59"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="A97:E97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4713,7 +4713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:F98"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
@@ -5109,7 +5109,7 @@
       </c>
     </row>
     <row r="29" spans="3:6" ht="37.950000000000003" customHeight="1">
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="12" t="s">
         <v>348</v>
       </c>
       <c r="D29" t="s">
@@ -5137,7 +5137,7 @@
       </c>
     </row>
     <row r="31" spans="3:6" ht="37.950000000000003" customHeight="1">
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="12" t="s">
         <v>552</v>
       </c>
       <c r="D31" t="s">
@@ -5151,7 +5151,7 @@
       </c>
     </row>
     <row r="32" spans="3:6" ht="37.950000000000003" customHeight="1">
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="12" t="s">
         <v>552</v>
       </c>
       <c r="D32" t="s">
@@ -5165,7 +5165,7 @@
       </c>
     </row>
     <row r="33" spans="3:6" ht="37.950000000000003" customHeight="1">
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="12" t="s">
         <v>552</v>
       </c>
       <c r="D33" t="s">
@@ -5179,7 +5179,7 @@
       </c>
     </row>
     <row r="34" spans="3:6" ht="37.950000000000003" customHeight="1">
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="12" t="s">
         <v>552</v>
       </c>
       <c r="D34" t="s">
@@ -5193,7 +5193,7 @@
       </c>
     </row>
     <row r="35" spans="3:6" ht="14.4">
-      <c r="C35" s="20"/>
+      <c r="C35" s="12"/>
     </row>
     <row r="36" spans="3:6" ht="37.950000000000003" customHeight="1">
       <c r="C36" s="9" t="s">
@@ -5653,189 +5653,189 @@
       </c>
     </row>
     <row r="82" spans="3:5" ht="37.950000000000003" customHeight="1">
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="E82" s="13" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="83" spans="3:5" ht="37.950000000000003" customHeight="1">
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="D83" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="E83" s="13" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="84" spans="3:5" ht="37.950000000000003" customHeight="1">
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="D84" s="21" t="s">
+      <c r="D84" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E84" s="13" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="85" spans="3:5" ht="37.950000000000003" customHeight="1">
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="D85" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="E85" s="21" t="s">
+      <c r="E85" s="13" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="86" spans="3:5" ht="37.950000000000003" customHeight="1">
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="D86" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="E86" s="21" t="s">
+      <c r="E86" s="13" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="87" spans="3:5" ht="37.950000000000003" customHeight="1">
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="D87" s="21" t="s">
+      <c r="D87" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="E87" s="21" t="s">
+      <c r="E87" s="13" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="88" spans="3:5" ht="37.950000000000003" customHeight="1">
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="D88" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="E88" s="21" t="s">
+      <c r="E88" s="13" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="89" spans="3:5" ht="37.950000000000003" customHeight="1">
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="D89" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="E89" s="21" t="s">
+      <c r="E89" s="13" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="90" spans="3:5" ht="37.950000000000003" customHeight="1">
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="D90" s="21" t="s">
+      <c r="D90" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="E90" s="21" t="s">
+      <c r="E90" s="13" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="91" spans="3:5" ht="37.950000000000003" customHeight="1">
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="D91" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="E91" s="21" t="s">
+      <c r="E91" s="13" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="92" spans="3:5" ht="37.950000000000003" customHeight="1">
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="D92" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="E92" s="13" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="93" spans="3:5" ht="37.950000000000003" customHeight="1">
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="D93" s="21" t="s">
+      <c r="D93" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="E93" s="21" t="s">
+      <c r="E93" s="13" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="94" spans="3:5" ht="37.950000000000003" customHeight="1">
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="D94" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="E94" s="21" t="s">
+      <c r="E94" s="13" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="95" spans="3:5" ht="37.950000000000003" customHeight="1">
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="E95" s="13" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="96" spans="3:5" ht="37.950000000000003" customHeight="1">
-      <c r="C96" s="22" t="s">
+      <c r="C96" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="D96" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="E96" s="21" t="s">
+      <c r="E96" s="13" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="97" spans="3:5" ht="37.950000000000003" customHeight="1">
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="D97" s="21" t="s">
+      <c r="D97" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="E97" s="21" t="s">
+      <c r="E97" s="13" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="98" spans="3:5" ht="37.950000000000003" customHeight="1">
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="D98" s="21" t="s">
+      <c r="D98" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="E98" s="21" t="s">
+      <c r="E98" s="13" t="s">
         <v>604</v>
       </c>
     </row>
@@ -5849,8 +5849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="36.450000000000003" customHeight="1"/>
@@ -5893,252 +5893,252 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="13" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="13" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="13" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="13" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="13" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="13" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="13" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="13" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="13" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="13" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="13" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="13" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="13" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="13" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="13" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="13" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="13" t="s">
         <v>841</v>
       </c>
     </row>
@@ -6162,242 +6162,242 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="15" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="13" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="13" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="13" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="13" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="13" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="13" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="13" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="13" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="13" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="13" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="13" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B39" s="21"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="13" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B40" s="21"/>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="13" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="13" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B42" s="21"/>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="13" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="13" t="s">
         <v>854</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="13" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="13" t="s">
         <v>856</v>
       </c>
     </row>
@@ -6415,58 +6415,58 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="13" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="36.450000000000003" customHeight="1">
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="13" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="36.450000000000003" customHeight="1">
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="13" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="36.450000000000003" customHeight="1">
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="13" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="36.450000000000003" customHeight="1">
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="13" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="36.450000000000003" customHeight="1">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="13" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="36.450000000000003" customHeight="1">
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="13" t="s">
         <v>863</v>
       </c>
     </row>
@@ -6484,74 +6484,74 @@
       </c>
     </row>
     <row r="57" spans="2:3" ht="36.450000000000003" customHeight="1">
-      <c r="B57" s="22">
+      <c r="B57" s="14">
         <v>1</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="13" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="36.450000000000003" customHeight="1">
-      <c r="B58" s="22">
+      <c r="B58" s="14">
         <v>2</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="13" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="36.450000000000003" customHeight="1">
-      <c r="B59" s="22">
+      <c r="B59" s="14">
         <v>3</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="13" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="36.450000000000003" customHeight="1">
-      <c r="B60" s="22">
+      <c r="B60" s="14">
         <v>4</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="13" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="36.450000000000003" customHeight="1">
-      <c r="B61" s="22">
+      <c r="B61" s="14">
         <v>5</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="13" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="36.450000000000003" customHeight="1">
-      <c r="B62" s="22">
+      <c r="B62" s="14">
         <v>6</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="13" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="36.450000000000003" customHeight="1">
-      <c r="B63" s="22">
+      <c r="B63" s="14">
         <v>7</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="13" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="36.450000000000003" customHeight="1">
-      <c r="B64" s="22">
+      <c r="B64" s="14">
         <v>8</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="13" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="36.450000000000003" customHeight="1">
-      <c r="B65" s="22">
+      <c r="B65" s="14">
         <v>9</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="13" t="s">
         <v>872</v>
       </c>
     </row>
@@ -6596,157 +6596,157 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="13" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="13" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="13" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="13" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="13" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="13" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="13" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="13" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="13" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="13" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="13" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="13" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="13" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="13" t="s">
         <v>792</v>
       </c>
     </row>
@@ -6767,75 +6767,75 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="15" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="13" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="13" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="13" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="13" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="13" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="13" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6856,112 +6856,112 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="13" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="13" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="13" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="13" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="13" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="13" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="13" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="13" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="13" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="13" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6982,123 +6982,123 @@
       </c>
     </row>
     <row r="45" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B45" s="22">
+      <c r="B45" s="14">
         <v>1</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="13" t="s">
         <v>804</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="13" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B46" s="22">
+      <c r="B46" s="14">
         <v>2</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="13" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B47" s="22">
+      <c r="B47" s="14">
         <v>3</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="13" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B48" s="22">
+      <c r="B48" s="14">
         <v>4</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="13" t="s">
         <v>809</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="13" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B49" s="22">
+      <c r="B49" s="14">
         <v>5</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="13" t="s">
         <v>811</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="13" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B50" s="22">
+      <c r="B50" s="14">
         <v>6</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="13" t="s">
         <v>813</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="13" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B51" s="22">
+      <c r="B51" s="14">
         <v>7</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="13" t="s">
         <v>815</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="13" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B52" s="22">
+      <c r="B52" s="14">
         <v>8</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="13" t="s">
         <v>817</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="13" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B53" s="22">
+      <c r="B53" s="14">
         <v>9</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="13" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B54" s="22">
+      <c r="B54" s="14">
         <v>10</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="13" t="s">
         <v>821</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="13" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="25.95" customHeight="1">
-      <c r="B55" s="22">
+      <c r="B55" s="14">
         <v>11</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="13" t="s">
         <v>823</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="13" t="s">
         <v>824</v>
       </c>
     </row>
@@ -7422,50 +7422,50 @@
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="2:6" ht="23.55" customHeight="1">
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="13" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="23.55" customHeight="1">
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="13" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="23.55" customHeight="1">
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="13" t="s">
         <v>621</v>
       </c>
       <c r="E30" t="s">
         <v>622</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="2:6" ht="23.55" customHeight="1">
       <c r="B31" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="33" spans="2:5" ht="37.200000000000003" customHeight="1">
       <c r="B33" s="10" t="s">
@@ -7482,382 +7482,382 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="13" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="13" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="13" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="13" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="13" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B39" s="21"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="13" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B40" s="21"/>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="13" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B41" s="21"/>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="13" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B42" s="21"/>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="13" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B43" s="21"/>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="13" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B44" s="21"/>
-      <c r="C44" s="21" t="s">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="13" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B45" s="21"/>
-      <c r="C45" s="21" t="s">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="13" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B46" s="21"/>
-      <c r="C46" s="21" t="s">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="13" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="13" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B48" s="21"/>
-      <c r="C48" s="21" t="s">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="13" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B49" s="21"/>
-      <c r="C49" s="21" t="s">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="13" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B50" s="21"/>
-      <c r="C50" s="21" t="s">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="13" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B51" s="21"/>
-      <c r="C51" s="21" t="s">
+      <c r="B51" s="13"/>
+      <c r="C51" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="13" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B52" s="21"/>
-      <c r="C52" s="21" t="s">
+      <c r="B52" s="13"/>
+      <c r="C52" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="13" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B53" s="21"/>
-      <c r="C53" s="21" t="s">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E53" s="13" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="13" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E55" s="13" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B56" s="21"/>
-      <c r="C56" s="21" t="s">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="13" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B57" s="21"/>
-      <c r="C57" s="21" t="s">
+      <c r="B57" s="13"/>
+      <c r="C57" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="13" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B58" s="21"/>
-      <c r="C58" s="21" t="s">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13" t="s">
         <v>669</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="13" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B59" s="21"/>
-      <c r="C59" s="21" t="s">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="13" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B60" s="21"/>
-      <c r="C60" s="21" t="s">
+      <c r="B60" s="13"/>
+      <c r="C60" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E60" s="13" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B61" s="21"/>
-      <c r="C61" s="21" t="s">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="E61" s="13" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B62" s="21"/>
-      <c r="C62" s="21" t="s">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="13" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B63" s="21"/>
-      <c r="C63" s="21" t="s">
+      <c r="B63" s="13"/>
+      <c r="C63" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E63" s="13" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="23.55" customHeight="1">
-      <c r="B64" s="21"/>
-      <c r="C64" s="21" t="s">
+      <c r="B64" s="13"/>
+      <c r="C64" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="E64" s="21" t="s">
+      <c r="E64" s="13" t="s">
         <v>687</v>
       </c>
     </row>
@@ -7878,145 +7878,145 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="23.55" customHeight="1">
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="14" t="s">
         <v>691</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="13" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="23.55" customHeight="1">
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D69" s="15" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="23.55" customHeight="1">
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="15" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="23.55" customHeight="1">
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="13" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="23.55" customHeight="1">
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D72" s="15" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="23.55" customHeight="1">
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="14" t="s">
         <v>705</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="13" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="23.55" customHeight="1">
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="13" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="23.55" customHeight="1">
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="14" t="s">
         <v>710</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D75" s="15" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="23.55" customHeight="1">
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="13" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="23.55" customHeight="1">
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="13" t="s">
         <v>715</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="13" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="23.55" customHeight="1">
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="13" t="s">
         <v>717</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="13" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="23.55" customHeight="1">
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="13" t="s">
         <v>719</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="D79" s="13" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="23.55" customHeight="1">
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="13" t="s">
         <v>721</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="D80" s="13" t="s">
         <v>722</v>
       </c>
     </row>
@@ -8043,379 +8043,379 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="23.55" customHeight="1">
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D84" s="21" t="s">
+      <c r="D84" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E84" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="F84" s="21" t="s">
+      <c r="F84" s="13" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="23.55" customHeight="1">
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="D85" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="E85" s="21" t="s">
+      <c r="E85" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="F85" s="21" t="s">
+      <c r="F85" s="13" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="23.55" customHeight="1">
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="D86" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="E86" s="21" t="s">
+      <c r="E86" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="F86" s="21" t="s">
+      <c r="F86" s="13" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="23.55" customHeight="1">
-      <c r="B87" s="23" t="s">
+      <c r="B87" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="D87" s="21" t="s">
+      <c r="D87" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="E87" s="21" t="s">
+      <c r="E87" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="F87" s="21" t="s">
+      <c r="F87" s="13" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="23.55" customHeight="1">
-      <c r="B88" s="23" t="s">
+      <c r="B88" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="D88" s="13" t="s">
         <v>739</v>
       </c>
-      <c r="E88" s="21" t="s">
+      <c r="E88" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="F88" s="21" t="s">
+      <c r="F88" s="13" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="23.55" customHeight="1">
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="D89" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="E89" s="21" t="s">
+      <c r="E89" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="F89" s="21" t="s">
+      <c r="F89" s="13" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="23.55" customHeight="1">
-      <c r="B90" s="23" t="s">
+      <c r="B90" s="15" t="s">
         <v>745</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="D90" s="21" t="s">
+      <c r="D90" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="E90" s="21" t="s">
+      <c r="E90" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="F90" s="21" t="s">
+      <c r="F90" s="13" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="23.55" customHeight="1">
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="D91" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="E91" s="21" t="s">
+      <c r="E91" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="F91" s="21" t="s">
+      <c r="F91" s="13" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="23.55" customHeight="1">
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="D92" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="E92" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="F92" s="21" t="s">
+      <c r="F92" s="13" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="23.55" customHeight="1">
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D93" s="21" t="s">
+      <c r="D93" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="E93" s="21" t="s">
+      <c r="E93" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F93" s="21" t="s">
+      <c r="F93" s="13" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="23.55" customHeight="1">
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="D94" s="13" t="s">
         <v>757</v>
       </c>
-      <c r="E94" s="21" t="s">
+      <c r="E94" s="13" t="s">
         <v>758</v>
       </c>
-      <c r="F94" s="21" t="s">
+      <c r="F94" s="13" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="23.55" customHeight="1">
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="13" t="s">
         <v>761</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="E95" s="13" t="s">
         <v>762</v>
       </c>
-      <c r="F95" s="21" t="s">
+      <c r="F95" s="13" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="23.55" customHeight="1">
-      <c r="B96" s="23" t="s">
+      <c r="B96" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="D96" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="E96" s="21" t="s">
+      <c r="E96" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="F96" s="21" t="s">
+      <c r="F96" s="13" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="97" spans="2:6" ht="23.55" customHeight="1">
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="D97" s="21" t="s">
+      <c r="D97" s="13" t="s">
         <v>767</v>
       </c>
-      <c r="E97" s="21" t="s">
+      <c r="E97" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="F97" s="21" t="s">
+      <c r="F97" s="13" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="23.55" customHeight="1">
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="D98" s="21" t="s">
+      <c r="D98" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="E98" s="21" t="s">
+      <c r="E98" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="F98" s="21" t="s">
+      <c r="F98" s="13" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="23.55" customHeight="1">
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="D99" s="21" t="s">
+      <c r="D99" s="13" t="s">
         <v>773</v>
       </c>
-      <c r="E99" s="21" t="s">
+      <c r="E99" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="F99" s="21" t="s">
+      <c r="F99" s="13" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="23.55" customHeight="1">
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D100" s="21" t="s">
+      <c r="D100" s="13" t="s">
         <v>776</v>
       </c>
-      <c r="E100" s="21" t="s">
+      <c r="E100" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="F100" s="21" t="s">
+      <c r="F100" s="13" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="23.55" customHeight="1">
-      <c r="B103" s="24" t="s">
+      <c r="B103" s="16" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="23.55" customHeight="1">
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="12" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="23.55" customHeight="1">
-      <c r="B106" s="25"/>
+      <c r="B106" s="17"/>
     </row>
     <row r="107" spans="2:6" ht="23.55" customHeight="1">
-      <c r="B107" s="26" t="s">
+      <c r="B107" s="18" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="23.55" customHeight="1">
-      <c r="B108" s="25"/>
+      <c r="B108" s="17"/>
     </row>
     <row r="109" spans="2:6" ht="23.55" customHeight="1">
-      <c r="B109" s="26" t="s">
+      <c r="B109" s="18" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="23.55" customHeight="1">
-      <c r="B110" s="25"/>
+      <c r="B110" s="17"/>
     </row>
     <row r="111" spans="2:6" ht="23.55" customHeight="1">
-      <c r="B111" s="25"/>
+      <c r="B111" s="17"/>
     </row>
     <row r="112" spans="2:6" ht="23.55" customHeight="1">
-      <c r="B112" s="27"/>
+      <c r="B112" s="19"/>
     </row>
     <row r="113" spans="2:2" ht="23.55" customHeight="1">
-      <c r="B113" s="28" t="s">
+      <c r="B113" s="20" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="114" spans="2:2" ht="23.55" customHeight="1">
-      <c r="B114" s="27"/>
+      <c r="B114" s="19"/>
     </row>
     <row r="115" spans="2:2" ht="23.55" customHeight="1">
-      <c r="B115" s="28" t="s">
+      <c r="B115" s="20" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="116" spans="2:2" ht="23.55" customHeight="1">
-      <c r="B116" s="27"/>
+      <c r="B116" s="19"/>
     </row>
     <row r="117" spans="2:2" ht="23.55" customHeight="1">
-      <c r="B117" s="28" t="s">
+      <c r="B117" s="20" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="118" spans="2:2" ht="23.55" customHeight="1">
-      <c r="B118" s="27"/>
+      <c r="B118" s="19"/>
     </row>
     <row r="119" spans="2:2" ht="23.55" customHeight="1">
-      <c r="B119" s="28" t="s">
+      <c r="B119" s="20" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="120" spans="2:2" ht="23.55" customHeight="1">
-      <c r="B120" s="25"/>
+      <c r="B120" s="17"/>
     </row>
     <row r="121" spans="2:2" ht="23.55" customHeight="1">
-      <c r="B121" s="26" t="s">
+      <c r="B121" s="18" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="122" spans="2:2" ht="23.55" customHeight="1">
-      <c r="B122" s="25"/>
+      <c r="B122" s="17"/>
     </row>
     <row r="123" spans="2:2" ht="23.55" customHeight="1">
-      <c r="B123" s="26" t="s">
+      <c r="B123" s="18" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="124" spans="2:2" ht="23.55" customHeight="1">
-      <c r="B124" s="25"/>
+      <c r="B124" s="17"/>
     </row>
     <row r="125" spans="2:2" ht="23.55" customHeight="1">
-      <c r="B125" s="26" t="s">
+      <c r="B125" s="18" t="s">
         <v>788</v>
       </c>
     </row>
@@ -8823,7 +8823,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="29.55" customHeight="1">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="12" t="s">
         <v>521</v>
       </c>
       <c r="C44" t="s">
@@ -8858,7 +8858,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="29.55" customHeight="1">
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="12" t="s">
         <v>529</v>
       </c>
       <c r="C48" t="s">
